--- a/NCU-CSL229 - SEPM - Lab Manual/Experiment 10/Test Cases.xlsx
+++ b/NCU-CSL229 - SEPM - Lab Manual/Experiment 10/Test Cases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\My Drive\Academics &amp; Study Material\NCU - College Material\ncu-lab-manual-and-end-semester-projects\NCU-CSL229 - SEPM - Lab Manual\Experiment 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64D4A54-607D-4F89-80A6-A214CE71B064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF67E73-B2C7-4897-BE4D-FAA6A620DD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases Executed" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Model throws an appropriate error message without crashing.</t>
-  </si>
-  <si>
-    <t>1. Input non-numeric data into the model.
-2. Observe behavior.</t>
-  </si>
-  <si>
-    <t>Model is ready to receive input.</t>
-  </si>
-  <si>
-    <t>Ensure the LSTM model handles non-numeric inputs gracefully without crashing.</t>
-  </si>
-  <si>
-    <t>BTC001</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="145">
   <si>
     <t>Executed By</t>
   </si>
@@ -70,7 +54,412 @@
     <t>Test Description</t>
   </si>
   <si>
-    <t>Test Case ID</t>
+    <t>SDT001</t>
+  </si>
+  <si>
+    <t>Input starting date as today's date.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>The system should accept the input without any issues.</t>
+  </si>
+  <si>
+    <t>SDT002</t>
+  </si>
+  <si>
+    <t>Input starting date as a past date.</t>
+  </si>
+  <si>
+    <t>SDT003</t>
+  </si>
+  <si>
+    <t>Input starting date as a future date.</t>
+  </si>
+  <si>
+    <t>SDT004</t>
+  </si>
+  <si>
+    <t>Input starting date in a format other than YYYY-MM-DD.</t>
+  </si>
+  <si>
+    <t>The system should throw an error indicating an invalid date format.</t>
+  </si>
+  <si>
+    <t>SDT005</t>
+  </si>
+  <si>
+    <t>Input starting date as an empty string.</t>
+  </si>
+  <si>
+    <t>The system should throw an error indicating a required field.</t>
+  </si>
+  <si>
+    <t>SDT006</t>
+  </si>
+  <si>
+    <t>Input starting date in a leap year.</t>
+  </si>
+  <si>
+    <t>SDT007</t>
+  </si>
+  <si>
+    <t>Input starting date with invalid characters.</t>
+  </si>
+  <si>
+    <t>The system should throw an error indicating an invalid input.</t>
+  </si>
+  <si>
+    <t>SDT008</t>
+  </si>
+  <si>
+    <t>Input starting date in the format MM-DD-YYYY.</t>
+  </si>
+  <si>
+    <t>SDT009</t>
+  </si>
+  <si>
+    <t>Input starting date with leading or trailing spaces.</t>
+  </si>
+  <si>
+    <t>The system should trim the spaces and accept the input without any issues.</t>
+  </si>
+  <si>
+    <t>SDT010</t>
+  </si>
+  <si>
+    <t>Input starting date with different date separators.</t>
+  </si>
+  <si>
+    <t>SDT011</t>
+  </si>
+  <si>
+    <t>Input starting date with month and day reversed.</t>
+  </si>
+  <si>
+    <t>NDVT001</t>
+  </si>
+  <si>
+    <t>Input number of days as 1.</t>
+  </si>
+  <si>
+    <t>NDVT002</t>
+  </si>
+  <si>
+    <t>Input number of days as a large positive integer.</t>
+  </si>
+  <si>
+    <t>NDVT003</t>
+  </si>
+  <si>
+    <t>Input number of days as a negative integer.</t>
+  </si>
+  <si>
+    <t>NDVT004</t>
+  </si>
+  <si>
+    <t>Input number of days as a decimal number.</t>
+  </si>
+  <si>
+    <t>NDVT005</t>
+  </si>
+  <si>
+    <t>Input number of days as an empty string.</t>
+  </si>
+  <si>
+    <t>NDVT006</t>
+  </si>
+  <si>
+    <t>Input number of days as zero.</t>
+  </si>
+  <si>
+    <t>NDVT007</t>
+  </si>
+  <si>
+    <t>Input number of days as the maximum possible value supported.</t>
+  </si>
+  <si>
+    <t>NDVT008</t>
+  </si>
+  <si>
+    <t>Input number of days as a fraction.</t>
+  </si>
+  <si>
+    <t>NDVT009</t>
+  </si>
+  <si>
+    <t>Input number of days as a string containing alphabets.</t>
+  </si>
+  <si>
+    <t>NDVT010</t>
+  </si>
+  <si>
+    <t>Input number of days as a negative floating-point number.</t>
+  </si>
+  <si>
+    <t>RT001</t>
+  </si>
+  <si>
+    <t>Input a starting date and number of days within the valid range.</t>
+  </si>
+  <si>
+    <t>RT002</t>
+  </si>
+  <si>
+    <t>Input a starting date in an unusual format.</t>
+  </si>
+  <si>
+    <t>RT003</t>
+  </si>
+  <si>
+    <t>Input a large number of days to predict.</t>
+  </si>
+  <si>
+    <t>RT004</t>
+  </si>
+  <si>
+    <t>Input a small number of days to predict.</t>
+  </si>
+  <si>
+    <t>RT005</t>
+  </si>
+  <si>
+    <t>Input a starting date close to the end of the dataset.</t>
+  </si>
+  <si>
+    <t>RT006</t>
+  </si>
+  <si>
+    <t>Input a starting date and number of days that exceeds dataset range.</t>
+  </si>
+  <si>
+    <t>RT007</t>
+  </si>
+  <si>
+    <t>RT008</t>
+  </si>
+  <si>
+    <t>Input a negative number of days with a starting date in the future.</t>
+  </si>
+  <si>
+    <t>RT009</t>
+  </si>
+  <si>
+    <t>Input a very small number of days to predict.</t>
+  </si>
+  <si>
+    <t>RT010</t>
+  </si>
+  <si>
+    <t>Input a starting date that is before the beginning of the dataset.</t>
+  </si>
+  <si>
+    <t>Input a very large number (i.e. more than 30 days) of days to predict.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Valid date as today's date is accepted.</t>
+  </si>
+  <si>
+    <t>The system should throw an error due to date beyond range.</t>
+  </si>
+  <si>
+    <t>Empty string correctly triggers required field error.</t>
+  </si>
+  <si>
+    <t>Different valid separators correctly handled.</t>
+  </si>
+  <si>
+    <t>Month and day reversal correctly triggers error.</t>
+  </si>
+  <si>
+    <t>Single day input correctly accepted.</t>
+  </si>
+  <si>
+    <t>Large positive integer correctly accepted.</t>
+  </si>
+  <si>
+    <t>Negative integer correctly triggers error.</t>
+  </si>
+  <si>
+    <t>Decimal number correctly triggers error.</t>
+  </si>
+  <si>
+    <t>Zero correctly triggers error as it is invalid input.</t>
+  </si>
+  <si>
+    <t>Maximum value correctly accepted based on system limits.</t>
+  </si>
+  <si>
+    <t>Fraction correctly triggers error as it is invalid input.</t>
+  </si>
+  <si>
+    <t>Piyush Gambhir</t>
+  </si>
+  <si>
+    <t>Alphabetic string for days correctly identified as error.</t>
+  </si>
+  <si>
+    <t>Negative floating-point number for days identified as error.</t>
+  </si>
+  <si>
+    <t>Valid input range processed correctly.</t>
+  </si>
+  <si>
+    <t>Unusual date format correctly identified as error.</t>
+  </si>
+  <si>
+    <t>Large number of days input processed correctly.</t>
+  </si>
+  <si>
+    <t>Small number of days input processed correctly.</t>
+  </si>
+  <si>
+    <t>Date close to dataset end processed correctly.</t>
+  </si>
+  <si>
+    <t>Exceeding dataset range correctly identified as error.</t>
+  </si>
+  <si>
+    <t>Very large number of days processed correctly.</t>
+  </si>
+  <si>
+    <t>Negative days in future correctly identified as error.</t>
+  </si>
+  <si>
+    <t>Starting date before dataset start correctly identified as error.</t>
+  </si>
+  <si>
+    <t>Set starting date to today's date.</t>
+  </si>
+  <si>
+    <t>Set starting date to a past date.</t>
+  </si>
+  <si>
+    <t>Set starting date to a future date.</t>
+  </si>
+  <si>
+    <t>Set starting date in a format other than YYYY-MM-DD.</t>
+  </si>
+  <si>
+    <t>Incorrect date format correctly triggers error.</t>
+  </si>
+  <si>
+    <t>Leave the starting date field empty.</t>
+  </si>
+  <si>
+    <t>Correctly handled empty date field as error.</t>
+  </si>
+  <si>
+    <t>Set starting date to a date in a leap year.</t>
+  </si>
+  <si>
+    <t>Leap year date processed correctly.</t>
+  </si>
+  <si>
+    <t>Set starting date with invalid characters (e.g., special symbols).</t>
+  </si>
+  <si>
+    <t>Invalid characters in date handled as error.</t>
+  </si>
+  <si>
+    <t>Set starting date in the format MM-DD-YYYY.</t>
+  </si>
+  <si>
+    <t>MM-DD-YYYY format correctly identified as error.</t>
+  </si>
+  <si>
+    <t>Set starting date with leading or trailing spaces.</t>
+  </si>
+  <si>
+    <t>Leading/trailing spaces handled correctly.</t>
+  </si>
+  <si>
+    <t>Set starting date with different date separators (e.g., "/", ".").</t>
+  </si>
+  <si>
+    <t>Set starting date with month and day reversed (e.g., YYYY-DD-MM).</t>
+  </si>
+  <si>
+    <t>Set number of days to 1.</t>
+  </si>
+  <si>
+    <t>Set number of days to a large positive integer.</t>
+  </si>
+  <si>
+    <t>Set number of days to a negative integer.</t>
+  </si>
+  <si>
+    <t>Set number of days to a decimal number.</t>
+  </si>
+  <si>
+    <t>Leave the number of days field empty.</t>
+  </si>
+  <si>
+    <t>Set number of days to zero.</t>
+  </si>
+  <si>
+    <t>Set number of days to the maximum possible value supported.</t>
+  </si>
+  <si>
+    <t>Set number of days to a fraction.</t>
+  </si>
+  <si>
+    <t>Set number of days as a string containing alphabets.</t>
+  </si>
+  <si>
+    <t>Set number of days as a negative floating-point number.</t>
+  </si>
+  <si>
+    <t>Set starting date and number of days within valid ranges.</t>
+  </si>
+  <si>
+    <t>Set starting date in an unusual format (e.g., DD-MM-YYYY).</t>
+  </si>
+  <si>
+    <t>Set a large number of days to predict (e.g., 365 days).</t>
+  </si>
+  <si>
+    <t>Set a small number of days to predict (e.g., 1 day).</t>
+  </si>
+  <si>
+    <t>Set starting date close to the end of the dataset.</t>
+  </si>
+  <si>
+    <t>Set starting date and number of days beyond the dataset range.</t>
+  </si>
+  <si>
+    <t>Set a very large number of days to predict (e.g., 1000 days).</t>
+  </si>
+  <si>
+    <t>Set a negative number of days with a starting date in the future.</t>
+  </si>
+  <si>
+    <t>Set a very small number of days to predict (e.g., 0.5 day).</t>
+  </si>
+  <si>
+    <t>Set starting date before the beginning of the dataset.</t>
+  </si>
+  <si>
+    <t>The system should throw and error indicating as invalid input.</t>
+  </si>
+  <si>
+    <t>Decimal days input are not accepted and identified as error.</t>
+  </si>
+  <si>
+    <t>The system should throw an error.</t>
+  </si>
+  <si>
+    <t>Future date witing 31 days of current date is accepted.</t>
+  </si>
+  <si>
+    <t>Past date is not accepted.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -86,27 +475,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,17 +510,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -133,11 +565,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,74 +864,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94BE268-5CE8-4BF0-B689-52270C3F3138}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45418</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
